--- a/Benefit_Dictionary.xlsx
+++ b/Benefit_Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/candiceyu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/candiceyu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34ED558D-AEF1-E849-B409-E0C1848D4EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B36D4DC-C0DD-9B41-8F61-F94FEB41BC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary - Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t>Contract_ID</t>
   </si>
@@ -178,42 +178,6 @@
     <t>OTC_Yearly</t>
   </si>
   <si>
-    <t>X14c1_Health_Education</t>
-  </si>
-  <si>
-    <t>X14c10_In.Home_Safety_Assessment</t>
-  </si>
-  <si>
-    <t>X14c11_Personal_Emergency_Response_System</t>
-  </si>
-  <si>
-    <t>X14c12_Medical_Nutrition_Therapy</t>
-  </si>
-  <si>
-    <t>X14c15_Wigs_for_Hair_Loss</t>
-  </si>
-  <si>
-    <t>X14c16_Weight_Management_Programs</t>
-  </si>
-  <si>
-    <t>X14c2_Nutritional.Dietary_Benefit</t>
-  </si>
-  <si>
-    <t>X14c3_Smoking_Tobacco_Counseling</t>
-  </si>
-  <si>
-    <t>X14c4_Fitness_Benefit</t>
-  </si>
-  <si>
-    <t>X14c7_Remote_Access_Technologies</t>
-  </si>
-  <si>
-    <t>X14c8_Bathroom_Safety_Devices</t>
-  </si>
-  <si>
-    <t>X14c9_Counseling_Services</t>
-  </si>
-  <si>
     <t>Star_Rating</t>
   </si>
   <si>
@@ -410,6 +374,102 @@
   </si>
   <si>
     <t xml:space="preserve">Dummy variable for additional benefit of Counseling Services. 1 means the plan offers this benefit, and 0 otherwise. </t>
+  </si>
+  <si>
+    <t>14c17_Alternative_Therapies</t>
+  </si>
+  <si>
+    <t>14c18_Therapeutic_Massage</t>
+  </si>
+  <si>
+    <t>14c19_Adult_Day_Health_Services</t>
+  </si>
+  <si>
+    <t>14c20_Home-Based_Palliative_Care</t>
+  </si>
+  <si>
+    <t>14c21_In-Home_Support_Services</t>
+  </si>
+  <si>
+    <t>14c22_Support_for_Caregivers_of_Enrollees</t>
+  </si>
+  <si>
+    <t>14c13_In-Home_Medication_Reconciliation</t>
+  </si>
+  <si>
+    <t>14c15_Wigs_for_Hair_Loss</t>
+  </si>
+  <si>
+    <t>14c12_Medical_Nutrition_Therapy</t>
+  </si>
+  <si>
+    <t>14c11_Personal_Emergency_Response_System</t>
+  </si>
+  <si>
+    <t>14c10_In.Home_Safety_Assessment</t>
+  </si>
+  <si>
+    <t>14c1_Health_Education</t>
+  </si>
+  <si>
+    <t>14c16_Weight_Management_Programs</t>
+  </si>
+  <si>
+    <t>14c2_Nutritional.Dietary_Benefit</t>
+  </si>
+  <si>
+    <t>14c3_Smoking_Tobacco_Counseling</t>
+  </si>
+  <si>
+    <t>14c4_Fitness_Benefit</t>
+  </si>
+  <si>
+    <t>14c7_Remote_Access_Technologies</t>
+  </si>
+  <si>
+    <t>14c8_Bathroom_Safety_Devices</t>
+  </si>
+  <si>
+    <t>14c9_Counseling_Services</t>
+  </si>
+  <si>
+    <t>14c14_Re-admission_Prevention</t>
+  </si>
+  <si>
+    <t>14c5_Enhanced_Disease_Management</t>
+  </si>
+  <si>
+    <t>14c6_Telemonitoring_Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy variable for additional benefit of Post discharge In-Home Medication Reconciliation. 1 means the plan offers this benefit, and 0 otherwise. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy variable for additional benefit of Re-admission Prevention. 1 means the plan offers this benefit, and 0 otherwise. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy variable for additional benefit of Alternative Therapies. 1 means the plan offers this benefit, and 0 otherwise. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy variable for additional benefit of Enhanced Disease Management. 1 means the plan offers this benefit, and 0 otherwise. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy variable for additional benefit of Telemonitoring Services. 1 means the plan offers this benefit, and 0 otherwise. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy variable for additional benefit of Therapeutic Massage. 1 means the plan offers this benefit, and 0 otherwise. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy variable for additional benefit of Adult Day Health Services. 1 means the plan offers this benefit, and 0 otherwise. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy variable for additional benefit of Home-Based Palliative Care. 1 means the plan offers this benefit, and 0 otherwise. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy variable for additional benefit of In-Home Support Services. 1 means the plan offers this benefit, and 0 otherwise. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy variable for additional benefit of Support for Caregivers of Enrollees. 1 means the plan offers this benefit, and 0 otherwise. </t>
   </si>
 </sst>
 </file>
@@ -1253,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1299,10 +1359,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1318,7 +1378,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -1326,7 +1386,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1334,7 +1394,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1342,7 +1402,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1350,7 +1410,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1358,7 +1418,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1366,15 +1426,15 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -1382,7 +1442,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1390,15 +1450,15 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -1406,7 +1466,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1414,7 +1474,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1422,7 +1482,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1430,7 +1490,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1438,7 +1498,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1446,7 +1506,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1454,7 +1514,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1462,7 +1522,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1470,7 +1530,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1478,7 +1538,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1486,7 +1546,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1494,7 +1554,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1502,7 +1562,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1510,7 +1570,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1518,7 +1578,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1526,15 +1586,15 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1542,7 +1602,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1550,7 +1610,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1558,7 +1618,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1566,7 +1626,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1574,7 +1634,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1582,7 +1642,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1590,7 +1650,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1598,7 +1658,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1606,7 +1666,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1614,7 +1674,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1622,7 +1682,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1630,7 +1690,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1638,7 +1698,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1646,7 +1706,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1654,7 +1714,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1662,7 +1722,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1670,119 +1730,199 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B53" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
